--- a/src/test/resources/data/AirportCabsData.xlsx
+++ b/src/test/resources/data/AirportCabsData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="37">
   <si>
     <t>TestCase</t>
   </si>

--- a/src/test/resources/data/AirportCabsData.xlsx
+++ b/src/test/resources/data/AirportCabsData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="37">
   <si>
     <t>TestCase</t>
   </si>
